--- a/documents/Aikataulu_evo.xlsx
+++ b/documents/Aikataulu_evo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Pelimoottoriprojektin aikataulu</t>
   </si>
@@ -72,14 +72,38 @@
     <t xml:space="preserve">Tutustutaan aineistoon, ryhmään ja työkaluihin. </t>
   </si>
   <si>
-    <t>Raportin palautukseen mennessä pitäisi olla projektissa ikkuna ja jotain liikkuvaa.</t>
+    <t>Loma</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>eli jonkinlainen filereader, shader, textuureja, ehkä camera</t>
+  </si>
+  <si>
+    <t>input ja debug ja sprite ja object handler ja content manager</t>
+  </si>
+  <si>
+    <t>ikkuna ja liikkuvuutta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">libraryyn tutustuminen ja libraryn aloittaminen </t>
+  </si>
+  <si>
+    <t>platform valmiina ennen ekaa raporttia, kaikki OpenGLään liittyvät käskyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(kaikki puuttuvat asiat mitkä tulevat ilmi projektin puolessa välissä) </t>
+  </si>
+  <si>
+    <t>Hiontaa, äänet ja demon tekeminen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +134,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE282C9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFE282C9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +173,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE282C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9A6E4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,19 +226,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -171,6 +265,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC9A6E4"/>
+      <color rgb="FF934BC9"/>
+      <color rgb="FFE282C9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -437,7 +538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,36 +560,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -497,18 +598,18 @@
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -535,229 +636,233 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="B13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9" t="s">
+      <c r="B14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="B15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="B17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="B18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="B21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G20:I20"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C3:D3"/>
@@ -774,6 +879,18 @@
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G20:I20"/>
     <mergeCell ref="B20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/Aikataulu_evo.xlsx
+++ b/documents/Aikataulu_evo.xlsx
@@ -72,9 +72,6 @@
     <t xml:space="preserve">Tutustutaan aineistoon, ryhmään ja työkaluihin. </t>
   </si>
   <si>
-    <t>Loma</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Hiontaa, äänet ja demon tekeminen</t>
+  </si>
+  <si>
+    <t>IOP</t>
   </si>
 </sst>
 </file>
@@ -163,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,12 +190,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC9A6E4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -213,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,37 +220,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -538,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,7 +540,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:F21"/>
+      <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,36 +551,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -598,18 +589,18 @@
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -636,233 +627,246 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="10" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="10" t="s">
+      <c r="B14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="B15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="B18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="10" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="10" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C3:D3"/>
@@ -879,19 +883,6 @@
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
